--- a/官媒宣传.xlsx
+++ b/官媒宣传.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>人民日报“宣言”署名文章：决胜脱贫在今朝</t>
   </si>
@@ -574,6 +574,62 @@
   </si>
   <si>
     <t>今天（3月19日）出版的人民日报发表评论员文章，题目是《中国抗疫彰显负责任大国担当》。文章指出，中国防控疫情取得的显著成效，为世界各国防控疫情争取了宝贵时间，作出了重要贡献，得到国际社会普遍赞扬。文章强调，中国及时向国内外发布疫情信息，同世界卫生组织保持良好沟通，同有关国家分享防疫和救治经验，向其他出现疫情扩散的国家和地区提供力所能及的援助，不仅是对中国人民生命安全和身体健康负责，也是对全球公共卫生事业尽责。</t>
+  </si>
+  <si>
+    <t>人民日报评论员文章：坚决把党中央对困难群众的关怀落到实处</t>
+  </si>
+  <si>
+    <t>今天（3月22日）出版的人民日报发表评论员文章，题目是《坚决把党中央对困难群众的关怀落到实处》。文章指出，越是特殊时期，越要加强对困难群众的兜底保障，越要加大对特殊群体的关心关爱。文章强调，对困难群众基本生活要应保尽保、执行到位，对生活困难外来滞留人员要主动救助、多方帮扶，对生活不能自理特殊困难人员要加强探视、妥善照顾。</t>
+  </si>
+  <si>
+    <t>今天（3月23日）出版的人民日报发表评论员文章，题目是《用全面辩证长远的眼光看待我国发展》。文章指出，中国经济是一片大海。经历了无数次狂风骤雨的冲击，中国经济仍然具有资源潜力巨大、内生动力充足、发展活力强劲的特征，具有稳中向好、长期向好的大势。文章强调，在前进道路上，有党的坚强领导，有集中力量办大事的制度优势，有万众一心、众志成城的民族精神，有改革开放以来积累的雄厚物质技术基础，有超大规模的市场优势和内需潜力，有庞大的人力资本和人才资源，有丰富的宏观调控经验和充足的政策空间，我们完全有条件、有能力、有信心战胜各种风险挑战，牢牢把握发展的主动权。</t>
+  </si>
+  <si>
+    <t>人民日报评论员文章：用全面辩证长远的眼光看待我国发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民日报任仲平文章：风雨无阻向前进——写在中国人民抗击新冠肺炎疫情之际</t>
+  </si>
+  <si>
+    <t>今天（3月26日）出版的人民日报发表任仲平文章，题目是《风雨无阻向前进——写在中国人民抗击新冠肺炎疫情之际》。文章指出，新冠肺炎疫情，是人类在迈入21世纪第三个十年之际，共同面临的又一场大考。在这场严峻考验中，人们看到了挺立风雨的坚强脊梁，看到了共克时艰的磅礴力量，看到了休戚与共的责任担当。文章强调，历史必将铭记2020年，不仅因为我们经历的磨难，更因为愈挫愈勇的斗志和生生不息的希望。从艰难困苦中走来，在风霜雨雪中跋涉，我们对困难和挑战并不陌生，我们对成功和胜利更不陌生。无论什么样的风雨，都无法阻挡中国人民和中华民族的前进步伐！</t>
+  </si>
+  <si>
+    <t>人民日报评论员文章：疫情防控决不能掉以轻心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天（3月26日）出版的人民日报发表评论员文章，题目是《疫情防控决不能掉以轻心》。</t>
+  </si>
+  <si>
+    <t>人民日报评论员文章：统筹抓好疫情防控和复工复产</t>
+  </si>
+  <si>
+    <t>今天（3月27日）出版的人民日报发表评论员文章，题目是《统筹抓好疫情防控和复工复产》。文章指出，把疫情防控做实做细做到位，是积极有序推动复工复产的前置条件，关键是在“统筹”上下功夫、在“精准”上做文章，力戒形式主义、官僚主义，防止顾此失彼。</t>
+  </si>
+  <si>
+    <t>人民日报国纪平文章：命运与共，团结合作方可共克时艰——中国抗击新冠肺炎疫情的世界意义</t>
+  </si>
+  <si>
+    <t>今天（3月28日）出版的人民日报发表国纪平文章，题目是《命运与共，团结合作方可共克时艰——中国抗击新冠肺炎疫情的世界意义》。文章指出，3月26日，二十国集团领导人应对新冠肺炎特别峰会举行，中国国家主席习近平在北京出席会议并发表重要讲话，表达中国推动各方合力抗击疫情、稳定世界经济的坚定决心和大国担当。2020年，对中国和世界，注定都极不平凡。历史必将铭记，一个14亿人口大国迎击骇浪的勇毅与顽强、践行诺言的务实与担当。历史终将证明，人类命运共同体理念必将进一步引领各国合作前进的潮流。</t>
+  </si>
+  <si>
+    <t>人民日报署名文章：防止疫后放松的心情提前到来</t>
+  </si>
+  <si>
+    <t>今天（3月28日）出版的人民日报发表署名文章，题目是《防止疫后放松的心情提前到来》。文章指出，经过全国上下和广大人民群众艰苦努力，疫情防控取得阶段性重要成效，经济社会秩序加快恢复。当此之际，我们尤其要高度警惕，慎终如始，尤须防止疫后放松的心情提前到来，导致前功尽弃。文章强调，唯有严密防范、不留死角、扫除盲点，直至彻底消除各种隐患，我们才能继续有效控制疫情，有力防止反弹，不断巩固成果、扩大战果。</t>
+  </si>
+  <si>
+    <t>习近平《论坚持推动构建人类命运共同体》日文版出版发行</t>
+  </si>
+  <si>
+    <t>中共中央党史和文献研究院翻译的习近平《论坚持推动构建人类命运共同体》一书日文版，近日由中央编译出版社出版发行。习近平《论坚持推动构建人类命运共同体》由中共中央党史和文献研究院编辑，收入习近平同志论述坚持推动构建人类命运共同体的重要文稿85篇。该书日文版和此前出版的英文、法文版，对于国外读者深入了解构建人类命运共同体理念，深刻理解习近平外交思想的丰富内涵和我国外交方针政策具有重要意义。</t>
+  </si>
+  <si>
+    <t>人民日报评论员文章：不断巩固和拓展疫情防控成效</t>
+  </si>
+  <si>
+    <t>今天（3月29日）出版的人民日报发表评论员文章，题目是《不断巩固和拓展疫情防控成效》。文章指出，当前，国内外疫情防控形势正在发生新的重大变化，境外疫情呈加速扩散蔓延态势，我国疫情输入压力持续加大。文章强调，要清醒看到国内外疫情形势的复杂性和严峻性，坚决把思想和行动统一到党中央决策部署上来，毫不放松抓紧抓实抓细各项防控工作，不断巩固和拓展疫情防控成效，决不能让疫情防控持续向好形势发生逆转。</t>
   </si>
 </sst>
 </file>
@@ -908,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1929,6 +1985,106 @@
         <v>183</v>
       </c>
     </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
